--- a/metrics/R2/upto time/Edema macular diabético (UPTO).xlsx
+++ b/metrics/R2/upto time/Edema macular diabético (UPTO).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5400262287594074</v>
+        <v>0.4759220883360232</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5400262287594074</v>
+        <v>0.4759220883360232</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5400262287594074</v>
+        <v>0.4759220883360232</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9973541252156514</v>
+        <v>0.982950794641828</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9974214788413596</v>
+        <v>0.9827245318601515</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9974243330923047</v>
+        <v>0.9833280176358538</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9979692001009022</v>
+        <v>0.9800816188397321</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9979926901783552</v>
+        <v>0.9790848721833348</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9979688918171185</v>
+        <v>0.980034690779731</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9424671187320346</v>
+        <v>0.9359707029689046</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9393909944838039</v>
+        <v>0.9357293892467069</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9402046925571866</v>
+        <v>0.9315930108971003</v>
       </c>
     </row>
   </sheetData>
